--- a/life_table3.xlsx
+++ b/life_table3.xlsx
@@ -9,31 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="life_table2" sheetId="1" r:id="rId1"/>
+    <sheet name="life_table3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>x (age)</t>
+    <t>pre-density-reduction</t>
+  </si>
+  <si>
+    <t>post-density-reduction</t>
+  </si>
+  <si>
+    <t>x (age in half-years)</t>
   </si>
   <si>
     <t>S(x)</t>
   </si>
   <si>
     <t>b(x)</t>
-  </si>
-  <si>
-    <t>l(x)</t>
-  </si>
-  <si>
-    <t>log(lx)</t>
   </si>
 </sst>
 </file>
@@ -840,143 +840,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>B2/$B$2</f>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>LOG(D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4">
+        <v>662</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>2.1</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3/$B$2</f>
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">LOG(D3)</f>
-        <v>-0.67264106561366965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G4">
+        <v>783</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>5.8</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
+        <v>332</v>
+      </c>
+      <c r="C5">
+        <v>1.29</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>398</v>
+      </c>
+      <c r="H5">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-1.1106982974936896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>251</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>288</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>142</v>
+      </c>
+      <c r="C7">
+        <v>2.08</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>211</v>
+      </c>
+      <c r="H7">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>3.3</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-1.9030899869919435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="G8">
+        <v>167</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>2.08</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>2.08</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2.08</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
